--- a/тесты.xlsx
+++ b/тесты.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="31">
   <si>
     <t>Тест1</t>
   </si>
@@ -69,12 +69,51 @@
   <si>
     <t>0,0002</t>
   </si>
+  <si>
+    <t>Худшие и лучшие тесты</t>
+  </si>
+  <si>
+    <t>Алгоритм перестановок</t>
+  </si>
+  <si>
+    <t>Кол-во операций</t>
+  </si>
+  <si>
+    <t>Худшие случаи</t>
+  </si>
+  <si>
+    <t>Время (мс)</t>
+  </si>
+  <si>
+    <t>Среднее время на операцию</t>
+  </si>
+  <si>
+    <t>Лучшие случаи</t>
+  </si>
+  <si>
+    <t>Алгоритм веткторов степеней</t>
+  </si>
+  <si>
+    <t>Алгоритм веткторов степеней 2 порядка</t>
+  </si>
+  <si>
+    <t>Время на операцию (с)</t>
+  </si>
+  <si>
+    <t>Время на операцию (мс)</t>
+  </si>
+  <si>
+    <t>Среднее время на операцию для всего алгоритма</t>
+  </si>
+  <si>
+    <t>Среднее время выполнения операции(с)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -100,6 +139,24 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -109,7 +166,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -257,11 +314,40 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -337,6 +423,79 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -539,11 +698,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="472509264"/>
-        <c:axId val="472510440"/>
+        <c:axId val="479140976"/>
+        <c:axId val="479138232"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="472509264"/>
+        <c:axId val="479140976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -600,12 +759,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="472510440"/>
+        <c:crossAx val="479138232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="472510440"/>
+        <c:axId val="479138232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -662,7 +821,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="472509264"/>
+        <c:crossAx val="479140976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -991,11 +1150,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="477994744"/>
-        <c:axId val="477993176"/>
+        <c:axId val="479141760"/>
+        <c:axId val="479139408"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="477994744"/>
+        <c:axId val="479141760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1052,12 +1211,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="477993176"/>
+        <c:crossAx val="479139408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="477993176"/>
+        <c:axId val="479139408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1114,7 +1273,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="477994744"/>
+        <c:crossAx val="479141760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1438,11 +1597,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="477993568"/>
-        <c:axId val="477993960"/>
+        <c:axId val="479139800"/>
+        <c:axId val="479141368"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="477993568"/>
+        <c:axId val="479139800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1499,12 +1658,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="477993960"/>
+        <c:crossAx val="479141368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="477993960"/>
+        <c:axId val="479141368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1561,7 +1720,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="477993568"/>
+        <c:crossAx val="479139800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1808,11 +1967,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="474912544"/>
-        <c:axId val="474908624"/>
+        <c:axId val="479144896"/>
+        <c:axId val="479140192"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="474912544"/>
+        <c:axId val="479144896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1869,12 +2028,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="474908624"/>
+        <c:crossAx val="479140192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="474908624"/>
+        <c:axId val="479140192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1931,7 +2090,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="474912544"/>
+        <c:crossAx val="479144896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2256,11 +2415,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="486112720"/>
-        <c:axId val="486118992"/>
+        <c:axId val="480353264"/>
+        <c:axId val="480349344"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="486112720"/>
+        <c:axId val="480353264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2317,12 +2476,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="486118992"/>
+        <c:crossAx val="480349344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="486118992"/>
+        <c:axId val="480349344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2379,7 +2538,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="486112720"/>
+        <c:crossAx val="480353264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2704,11 +2863,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="487379584"/>
-        <c:axId val="487380368"/>
+        <c:axId val="480352872"/>
+        <c:axId val="480352088"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="487379584"/>
+        <c:axId val="480352872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2765,12 +2924,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="487380368"/>
+        <c:crossAx val="480352088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="487380368"/>
+        <c:axId val="480352088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2827,7 +2986,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="487379584"/>
+        <c:crossAx val="480352872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6684,16 +6843,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D4:V89"/>
+  <dimension ref="D4:AA115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="V20" sqref="V20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P119" sqref="P119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="6" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="22.5703125" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="12" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="22.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="4:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -6755,7 +6926,7 @@
         <v>2.0000000000000001E-4</v>
       </c>
       <c r="V7">
-        <f>FACT(D7)</f>
+        <f t="shared" ref="V7:V15" si="0">FACT(D7)</f>
         <v>120</v>
       </c>
     </row>
@@ -6779,11 +6950,11 @@
         <v>1E-3</v>
       </c>
       <c r="J8" s="10">
-        <f t="shared" ref="J8:J20" si="0">SUM(E8:I8)/5</f>
+        <f t="shared" ref="J8:J20" si="1">SUM(E8:I8)/5</f>
         <v>1E-3</v>
       </c>
       <c r="V8">
-        <f>FACT(D8)</f>
+        <f t="shared" si="0"/>
         <v>720</v>
       </c>
     </row>
@@ -6807,11 +6978,11 @@
         <v>6.0000000000000001E-3</v>
       </c>
       <c r="J9" s="10">
+        <f t="shared" si="1"/>
+        <v>6.6E-3</v>
+      </c>
+      <c r="V9">
         <f t="shared" si="0"/>
-        <v>6.6E-3</v>
-      </c>
-      <c r="V9">
-        <f>FACT(D9)</f>
         <v>5040</v>
       </c>
     </row>
@@ -6835,11 +7006,11 @@
         <v>7.0000000000000001E-3</v>
       </c>
       <c r="J10" s="10">
+        <f t="shared" si="1"/>
+        <v>7.000000000000001E-3</v>
+      </c>
+      <c r="V10">
         <f t="shared" si="0"/>
-        <v>7.000000000000001E-3</v>
-      </c>
-      <c r="V10">
-        <f>FACT(D10)</f>
         <v>40320</v>
       </c>
     </row>
@@ -6863,11 +7034,11 @@
         <v>0.8</v>
       </c>
       <c r="J11" s="10">
+        <f t="shared" si="1"/>
+        <v>0.84000000000000008</v>
+      </c>
+      <c r="V11">
         <f t="shared" si="0"/>
-        <v>0.84000000000000008</v>
-      </c>
-      <c r="V11">
-        <f>FACT(D11)</f>
         <v>362880</v>
       </c>
     </row>
@@ -6891,11 +7062,11 @@
         <v>7.91</v>
       </c>
       <c r="J12" s="10">
+        <f t="shared" si="1"/>
+        <v>7.7219999999999995</v>
+      </c>
+      <c r="V12">
         <f t="shared" si="0"/>
-        <v>7.7219999999999995</v>
-      </c>
-      <c r="V12">
-        <f>FACT(D12)</f>
         <v>3628800</v>
       </c>
     </row>
@@ -6924,7 +7095,7 @@
       </c>
       <c r="S13" s="5"/>
       <c r="V13">
-        <f>FACT(D13)</f>
+        <f t="shared" si="0"/>
         <v>39916800</v>
       </c>
     </row>
@@ -6948,12 +7119,12 @@
         <v>1334.6079999999999</v>
       </c>
       <c r="J14" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1309.2336</v>
       </c>
       <c r="S14" s="5"/>
       <c r="V14">
-        <f>FACT(D14)</f>
+        <f t="shared" si="0"/>
         <v>479001600</v>
       </c>
     </row>
@@ -6967,12 +7138,12 @@
       <c r="H15" s="10"/>
       <c r="I15" s="10"/>
       <c r="J15" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S15" s="3"/>
       <c r="V15">
-        <f>FACT(D15)</f>
+        <f t="shared" si="0"/>
         <v>6227020800</v>
       </c>
     </row>
@@ -6986,12 +7157,12 @@
       <c r="H16" s="10"/>
       <c r="I16" s="10"/>
       <c r="J16" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S16" s="5"/>
       <c r="V16">
-        <f t="shared" ref="V16:V18" si="1">FACT(D16)</f>
+        <f t="shared" ref="V16:V18" si="2">FACT(D16)</f>
         <v>87178291200</v>
       </c>
     </row>
@@ -7005,12 +7176,12 @@
       <c r="H17" s="10"/>
       <c r="I17" s="10"/>
       <c r="J17" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S17" s="5"/>
       <c r="V17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1307674368000</v>
       </c>
     </row>
@@ -7024,12 +7195,12 @@
       <c r="H18" s="10"/>
       <c r="I18" s="10"/>
       <c r="J18" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S18" s="5"/>
       <c r="V18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>20922789888000</v>
       </c>
     </row>
@@ -7043,7 +7214,7 @@
       <c r="H19" s="10"/>
       <c r="I19" s="10"/>
       <c r="J19" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -7057,7 +7228,7 @@
       <c r="H20" s="11"/>
       <c r="I20" s="11"/>
       <c r="J20" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -7120,7 +7291,7 @@
         <v>0</v>
       </c>
       <c r="V25">
-        <f>POWER(D25,2)</f>
+        <f t="shared" ref="V25:V48" si="3">POWER(D25,2)</f>
         <v>25</v>
       </c>
     </row>
@@ -7144,11 +7315,11 @@
         <v>0</v>
       </c>
       <c r="J26" s="10">
-        <f t="shared" ref="J26:J30" si="2">SUM(E26:I26)/5</f>
+        <f t="shared" ref="J26:J30" si="4">SUM(E26:I26)/5</f>
         <v>2.0000000000000001E-4</v>
       </c>
       <c r="V26">
-        <f>POWER(D26,2)</f>
+        <f t="shared" si="3"/>
         <v>36</v>
       </c>
     </row>
@@ -7172,11 +7343,11 @@
         <v>0</v>
       </c>
       <c r="J27" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="V27">
-        <f>POWER(D27,2)</f>
+        <f t="shared" si="3"/>
         <v>49</v>
       </c>
     </row>
@@ -7200,11 +7371,11 @@
         <v>0</v>
       </c>
       <c r="J28" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="V28">
-        <f>POWER(D28,2)</f>
+        <f t="shared" si="3"/>
         <v>64</v>
       </c>
     </row>
@@ -7228,11 +7399,11 @@
         <v>0</v>
       </c>
       <c r="J29" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="V29">
-        <f>POWER(D29,2)</f>
+        <f t="shared" si="3"/>
         <v>81</v>
       </c>
     </row>
@@ -7256,11 +7427,11 @@
         <v>0</v>
       </c>
       <c r="J30" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="V30">
-        <f>POWER(D30,2)</f>
+        <f t="shared" si="3"/>
         <v>100</v>
       </c>
     </row>
@@ -7288,7 +7459,7 @@
         <v>0</v>
       </c>
       <c r="V31">
-        <f>POWER(D31,2)</f>
+        <f t="shared" si="3"/>
         <v>121</v>
       </c>
     </row>
@@ -7312,11 +7483,11 @@
         <v>0</v>
       </c>
       <c r="J32" s="10">
-        <f t="shared" ref="J32:J48" si="3">SUM(E32:I32)/5</f>
+        <f t="shared" ref="J32:J48" si="5">SUM(E32:I32)/5</f>
         <v>0</v>
       </c>
       <c r="V32">
-        <f>POWER(D32,2)</f>
+        <f t="shared" si="3"/>
         <v>144</v>
       </c>
     </row>
@@ -7343,7 +7514,7 @@
         <v>0</v>
       </c>
       <c r="V33">
-        <f>POWER(D33,2)</f>
+        <f t="shared" si="3"/>
         <v>169</v>
       </c>
     </row>
@@ -7367,11 +7538,11 @@
         <v>0</v>
       </c>
       <c r="J34" s="10">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="V34">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="V34">
-        <f>POWER(D34,2)</f>
         <v>196</v>
       </c>
     </row>
@@ -7395,11 +7566,11 @@
         <v>0</v>
       </c>
       <c r="J35" s="10">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="V35">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="V35">
-        <f>POWER(D35,2)</f>
         <v>225</v>
       </c>
     </row>
@@ -7423,11 +7594,11 @@
         <v>0</v>
       </c>
       <c r="J36" s="10">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="V36">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="V36">
-        <f>POWER(D36,2)</f>
         <v>256</v>
       </c>
     </row>
@@ -7451,11 +7622,11 @@
         <v>0</v>
       </c>
       <c r="J37" s="10">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="V37">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="V37">
-        <f>POWER(D37,2)</f>
         <v>289</v>
       </c>
     </row>
@@ -7479,11 +7650,11 @@
         <v>0</v>
       </c>
       <c r="J38" s="10">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="V38">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="V38">
-        <f>POWER(D38,2)</f>
         <v>324</v>
       </c>
     </row>
@@ -7507,11 +7678,11 @@
         <v>0</v>
       </c>
       <c r="J39" s="10">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="V39">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="V39">
-        <f>POWER(D39,2)</f>
         <v>400</v>
       </c>
     </row>
@@ -7535,11 +7706,11 @@
         <v>0</v>
       </c>
       <c r="J40" s="10">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="V40">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="V40">
-        <f>POWER(D40,2)</f>
         <v>1600</v>
       </c>
     </row>
@@ -7563,11 +7734,11 @@
         <v>0</v>
       </c>
       <c r="J41" s="10">
+        <f t="shared" si="5"/>
+        <v>8.0000000000000004E-4</v>
+      </c>
+      <c r="V41">
         <f t="shared" si="3"/>
-        <v>8.0000000000000004E-4</v>
-      </c>
-      <c r="V41">
-        <f>POWER(D41,2)</f>
         <v>6400</v>
       </c>
     </row>
@@ -7591,11 +7762,11 @@
         <v>1E-3</v>
       </c>
       <c r="J42" s="10">
+        <f t="shared" si="5"/>
+        <v>1.4E-3</v>
+      </c>
+      <c r="V42">
         <f t="shared" si="3"/>
-        <v>1.4E-3</v>
-      </c>
-      <c r="V42">
-        <f>POWER(D42,2)</f>
         <v>25600</v>
       </c>
     </row>
@@ -7619,11 +7790,11 @@
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="J43" s="10">
+        <f t="shared" si="5"/>
+        <v>3.5999999999999999E-3</v>
+      </c>
+      <c r="V43">
         <f t="shared" si="3"/>
-        <v>3.5999999999999999E-3</v>
-      </c>
-      <c r="V43">
-        <f>POWER(D43,2)</f>
         <v>102400</v>
       </c>
     </row>
@@ -7647,11 +7818,11 @@
         <v>6.0000000000000001E-3</v>
       </c>
       <c r="J44" s="10">
+        <f t="shared" si="5"/>
+        <v>7.7999999999999988E-3</v>
+      </c>
+      <c r="V44">
         <f t="shared" si="3"/>
-        <v>7.7999999999999988E-3</v>
-      </c>
-      <c r="V44">
-        <f>POWER(D44,2)</f>
         <v>409600</v>
       </c>
     </row>
@@ -7675,11 +7846,11 @@
         <v>2.8000000000000001E-2</v>
       </c>
       <c r="J45" s="15">
+        <f t="shared" si="5"/>
+        <v>2.878E-2</v>
+      </c>
+      <c r="V45">
         <f t="shared" si="3"/>
-        <v>2.878E-2</v>
-      </c>
-      <c r="V45">
-        <f>POWER(D45,2)</f>
         <v>1638400</v>
       </c>
     </row>
@@ -7703,11 +7874,11 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="J46" s="15">
+        <f t="shared" si="5"/>
+        <v>0.1396</v>
+      </c>
+      <c r="V46">
         <f t="shared" si="3"/>
-        <v>0.1396</v>
-      </c>
-      <c r="V46">
-        <f>POWER(D46,2)</f>
         <v>6553600</v>
       </c>
     </row>
@@ -7731,11 +7902,11 @@
         <v>0.53</v>
       </c>
       <c r="J47" s="15">
+        <f t="shared" si="5"/>
+        <v>0.56799999999999995</v>
+      </c>
+      <c r="V47">
         <f t="shared" si="3"/>
-        <v>0.56799999999999995</v>
-      </c>
-      <c r="V47">
-        <f>POWER(D47,2)</f>
         <v>26214400</v>
       </c>
     </row>
@@ -7759,11 +7930,11 @@
         <v>2.2189999999999999</v>
       </c>
       <c r="J48" s="16">
+        <f t="shared" si="5"/>
+        <v>2.2679999999999998</v>
+      </c>
+      <c r="V48">
         <f t="shared" si="3"/>
-        <v>2.2679999999999998</v>
-      </c>
-      <c r="V48">
-        <f>POWER(D48,2)</f>
         <v>104857600</v>
       </c>
     </row>
@@ -7855,11 +8026,11 @@
         <v>0</v>
       </c>
       <c r="J54" s="10">
-        <f t="shared" ref="J54:J58" si="4">SUM(E54:I54)/5</f>
+        <f t="shared" ref="J54:J58" si="6">SUM(E54:I54)/5</f>
         <v>2.0000000000000001E-4</v>
       </c>
       <c r="V54">
-        <f t="shared" ref="V54:V76" si="5">POWER(D54,2)*LOG(D54,2)</f>
+        <f t="shared" ref="V54:V76" si="7">POWER(D54,2)*LOG(D54,2)</f>
         <v>93.058650025961612</v>
       </c>
     </row>
@@ -7883,11 +8054,11 @@
         <v>0</v>
       </c>
       <c r="J55" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="V55">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>137.56039118082259</v>
       </c>
     </row>
@@ -7911,11 +8082,11 @@
         <v>0</v>
       </c>
       <c r="J56" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2.0000000000000001E-4</v>
       </c>
       <c r="V56">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>192</v>
       </c>
     </row>
@@ -7939,11 +8110,11 @@
         <v>1E-3</v>
       </c>
       <c r="J57" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2.0000000000000001E-4</v>
       </c>
       <c r="V57">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>256.76392511682729</v>
       </c>
     </row>
@@ -7967,11 +8138,11 @@
         <v>0</v>
       </c>
       <c r="J58" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2.0000000000000001E-4</v>
       </c>
       <c r="V58">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>332.19280948873626</v>
       </c>
     </row>
@@ -7999,7 +8170,7 @@
         <v>6.0000000000000006E-4</v>
       </c>
       <c r="V59">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>418.59122585511301</v>
       </c>
     </row>
@@ -8023,11 +8194,11 @@
         <v>0</v>
       </c>
       <c r="J60" s="10">
-        <f t="shared" ref="J60:J70" si="6">SUM(E60:I60)/5</f>
+        <f t="shared" ref="J60:J70" si="8">SUM(E60:I60)/5</f>
         <v>4.0000000000000002E-4</v>
       </c>
       <c r="V60">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>516.23460010384656</v>
       </c>
     </row>
@@ -8051,11 +8222,11 @@
         <v>1E-3</v>
       </c>
       <c r="J61" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>8.0000000000000004E-4</v>
       </c>
       <c r="V61">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>625.37431236584462</v>
       </c>
     </row>
@@ -8079,11 +8250,11 @@
         <v>1E-3</v>
       </c>
       <c r="J62" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>6.0000000000000006E-4</v>
       </c>
       <c r="V62">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>746.24156472329037</v>
       </c>
     </row>
@@ -8107,11 +8278,11 @@
         <v>1E-3</v>
       </c>
       <c r="J63" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>6.0000000000000006E-4</v>
       </c>
       <c r="V63">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>879.05038401191666</v>
       </c>
     </row>
@@ -8135,11 +8306,11 @@
         <v>1E-3</v>
       </c>
       <c r="J64" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1E-3</v>
       </c>
       <c r="V64">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1024</v>
       </c>
     </row>
@@ -8163,11 +8334,11 @@
         <v>1E-3</v>
       </c>
       <c r="J65" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>8.0000000000000004E-4</v>
       </c>
       <c r="V65">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1181.2767611213483</v>
       </c>
     </row>
@@ -8191,11 +8362,11 @@
         <v>1E-3</v>
       </c>
       <c r="J66" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1E-3</v>
       </c>
       <c r="V66">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1351.0557004673092</v>
       </c>
     </row>
@@ -8219,11 +8390,11 @@
         <v>1E-3</v>
       </c>
       <c r="J67" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.6000000000000001E-3</v>
       </c>
       <c r="V67">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1728.771237954945</v>
       </c>
     </row>
@@ -8247,11 +8418,11 @@
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="J68" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>3.6000000000000003E-3</v>
       </c>
       <c r="V68">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>8515.0849518197811</v>
       </c>
     </row>
@@ -8275,11 +8446,11 @@
         <v>1.2E-2</v>
       </c>
       <c r="J69" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>9.4000000000000004E-3</v>
       </c>
       <c r="V69">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>40460.339807279117</v>
       </c>
     </row>
@@ -8303,11 +8474,11 @@
         <v>1.2E-2</v>
       </c>
       <c r="J70" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.54E-2</v>
       </c>
       <c r="V70">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>187441.35922911647</v>
       </c>
     </row>
@@ -8331,11 +8502,11 @@
         <v>0.05</v>
       </c>
       <c r="J71" s="15">
-        <f t="shared" ref="J71:J76" si="7">SUM(E71:I71)/5</f>
+        <f t="shared" ref="J71:J76" si="9">SUM(E71:I71)/5</f>
         <v>7.1399999999999991E-2</v>
       </c>
       <c r="V71">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>852165.43691646587</v>
       </c>
     </row>
@@ -8359,11 +8530,11 @@
         <v>0.18099999999999999</v>
       </c>
       <c r="J72" s="15">
+        <f t="shared" si="9"/>
+        <v>0.21579999999999999</v>
+      </c>
+      <c r="V72">
         <f t="shared" si="7"/>
-        <v>0.21579999999999999</v>
-      </c>
-      <c r="V72">
-        <f t="shared" si="5"/>
         <v>3818261.7476658635</v>
       </c>
     </row>
@@ -8387,11 +8558,11 @@
         <v>0.72499999999999998</v>
       </c>
       <c r="J73" s="15">
+        <f t="shared" si="9"/>
+        <v>0.81479999999999997</v>
+      </c>
+      <c r="V73">
         <f t="shared" si="7"/>
-        <v>0.81479999999999997</v>
-      </c>
-      <c r="V73">
-        <f t="shared" si="5"/>
         <v>16911446.990663454</v>
       </c>
     </row>
@@ -8415,11 +8586,11 @@
         <v>3.0030000000000001</v>
       </c>
       <c r="J74" s="15">
+        <f t="shared" si="9"/>
+        <v>3.0649999999999999</v>
+      </c>
+      <c r="V74">
         <f t="shared" si="7"/>
-        <v>3.0649999999999999</v>
-      </c>
-      <c r="V74">
-        <f t="shared" si="5"/>
         <v>74199387.962653831</v>
       </c>
     </row>
@@ -8443,11 +8614,11 @@
         <v>12.605</v>
       </c>
       <c r="J75" s="15">
+        <f t="shared" si="9"/>
+        <v>12.642199999999999</v>
+      </c>
+      <c r="V75">
         <f t="shared" si="7"/>
-        <v>12.642199999999999</v>
-      </c>
-      <c r="V75">
-        <f t="shared" si="5"/>
         <v>323011951.85061532</v>
       </c>
     </row>
@@ -8471,11 +8642,11 @@
         <v>55.73</v>
       </c>
       <c r="J76" s="16">
+        <f t="shared" si="9"/>
+        <v>56.1828</v>
+      </c>
+      <c r="V76">
         <f t="shared" si="7"/>
-        <v>56.1828</v>
-      </c>
-      <c r="V76">
-        <f t="shared" si="5"/>
         <v>1396905407.4024613</v>
       </c>
     </row>
@@ -8491,7 +8662,7 @@
       <c r="I80" s="27"/>
       <c r="J80" s="7"/>
     </row>
-    <row r="81" spans="4:9" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="4:27" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D81" s="8"/>
       <c r="E81" s="20" t="s">
         <v>11</v>
@@ -8503,7 +8674,7 @@
       </c>
       <c r="I81" s="24"/>
     </row>
-    <row r="82" spans="4:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="4:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D82" s="1" t="s">
         <v>15</v>
       </c>
@@ -8523,7 +8694,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="83" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="4:27" x14ac:dyDescent="0.25">
       <c r="D83" s="2">
         <v>3</v>
       </c>
@@ -8543,7 +8714,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="4:27" x14ac:dyDescent="0.25">
       <c r="D84" s="2">
         <v>5</v>
       </c>
@@ -8563,7 +8734,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="4:27" x14ac:dyDescent="0.25">
       <c r="D85" s="2">
         <v>6</v>
       </c>
@@ -8583,7 +8754,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="4:27" x14ac:dyDescent="0.25">
       <c r="D86" s="2">
         <v>7</v>
       </c>
@@ -8603,7 +8774,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="4:27" x14ac:dyDescent="0.25">
       <c r="D87" s="2">
         <v>8</v>
       </c>
@@ -8623,7 +8794,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="4:27" x14ac:dyDescent="0.25">
       <c r="D88" s="2">
         <v>9</v>
       </c>
@@ -8643,7 +8814,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="4:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="4:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D89" s="4">
         <v>10</v>
       </c>
@@ -8663,8 +8834,886 @@
         <v>1</v>
       </c>
     </row>
+    <row r="91" spans="4:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="92" spans="4:27" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="K92" s="46" t="s">
+        <v>18</v>
+      </c>
+      <c r="L92" s="47"/>
+      <c r="M92" s="47"/>
+      <c r="N92" s="47"/>
+      <c r="O92" s="47"/>
+      <c r="P92" s="47"/>
+      <c r="Q92" s="47"/>
+      <c r="R92" s="47"/>
+      <c r="S92" s="47"/>
+      <c r="T92" s="47"/>
+      <c r="U92" s="47"/>
+      <c r="V92" s="47"/>
+      <c r="W92" s="47"/>
+      <c r="X92" s="47"/>
+      <c r="Y92" s="47"/>
+      <c r="Z92" s="47"/>
+      <c r="AA92" s="48"/>
+    </row>
+    <row r="93" spans="4:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="94" spans="4:27" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="K94" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="L94" s="18"/>
+      <c r="M94" s="18"/>
+      <c r="N94" s="18"/>
+      <c r="O94" s="19"/>
+      <c r="P94" s="5"/>
+      <c r="Q94" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="R94" s="18"/>
+      <c r="S94" s="18"/>
+      <c r="T94" s="18"/>
+      <c r="U94" s="19"/>
+      <c r="V94" s="5"/>
+      <c r="W94" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="X94" s="18"/>
+      <c r="Y94" s="18"/>
+      <c r="Z94" s="18"/>
+      <c r="AA94" s="19"/>
+    </row>
+    <row r="95" spans="4:27" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K95" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="L95" s="29"/>
+      <c r="M95" s="29"/>
+      <c r="N95" s="29"/>
+      <c r="O95" s="30"/>
+      <c r="P95" s="5"/>
+      <c r="Q95" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="R95" s="29"/>
+      <c r="S95" s="29"/>
+      <c r="T95" s="29"/>
+      <c r="U95" s="30"/>
+      <c r="V95" s="5"/>
+      <c r="W95" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="X95" s="29"/>
+      <c r="Y95" s="29"/>
+      <c r="Z95" s="29"/>
+      <c r="AA95" s="30"/>
+    </row>
+    <row r="96" spans="4:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K96" s="41" t="s">
+        <v>15</v>
+      </c>
+      <c r="L96" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="M96" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="N96" s="42" t="s">
+        <v>28</v>
+      </c>
+      <c r="O96" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="P96" s="5"/>
+      <c r="Q96" s="41" t="s">
+        <v>15</v>
+      </c>
+      <c r="R96" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="S96" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="T96" s="42" t="s">
+        <v>27</v>
+      </c>
+      <c r="U96" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="V96" s="5"/>
+      <c r="W96" s="41" t="s">
+        <v>15</v>
+      </c>
+      <c r="X96" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y96" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z96" s="42" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA96" s="43" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="97" spans="11:27" x14ac:dyDescent="0.25">
+      <c r="K97" s="36">
+        <v>6</v>
+      </c>
+      <c r="L97" s="37">
+        <f>FACT(K97)*(3.5*K97*K97+6.5*K97+4) + 4*K97+5</f>
+        <v>121709</v>
+      </c>
+      <c r="M97" s="37">
+        <v>1</v>
+      </c>
+      <c r="N97" s="37">
+        <f>M97/L97</f>
+        <v>8.2163192533009066E-6</v>
+      </c>
+      <c r="O97" s="38">
+        <f>N97*1000</f>
+        <v>8.216319253300906E-3</v>
+      </c>
+      <c r="P97" s="5"/>
+      <c r="Q97" s="33">
+        <v>1280</v>
+      </c>
+      <c r="R97" s="34">
+        <f>6*Q97*Q97+9*Q97+10+2*Q97*LOG(Q97,2)</f>
+        <v>9868354.1359229125</v>
+      </c>
+      <c r="S97" s="34">
+        <v>43</v>
+      </c>
+      <c r="T97" s="34">
+        <f>S97/R97</f>
+        <v>4.3573628801454169E-6</v>
+      </c>
+      <c r="U97" s="35">
+        <f>T97*1000</f>
+        <v>4.3573628801454167E-3</v>
+      </c>
+      <c r="V97" s="5"/>
+      <c r="W97" s="33">
+        <v>640</v>
+      </c>
+      <c r="X97" s="34">
+        <f>17*W97*W97+2*W97*W97*LOG(W97,2)+2*W97*LOG(W97,2)+24*W97+26</f>
+        <v>14627041.563293183</v>
+      </c>
+      <c r="Y97" s="34">
+        <v>177</v>
+      </c>
+      <c r="Z97" s="34">
+        <f>Y97/X97</f>
+        <v>1.2100874892171264E-5</v>
+      </c>
+      <c r="AA97" s="35">
+        <f>Z97*1000</f>
+        <v>1.2100874892171263E-2</v>
+      </c>
+    </row>
+    <row r="98" spans="11:27" x14ac:dyDescent="0.25">
+      <c r="K98" s="36">
+        <v>8</v>
+      </c>
+      <c r="L98" s="37">
+        <f t="shared" ref="L98:L100" si="10">FACT(K98)*(3.5*K98*K98+6.5*K98+4) + 4*K98+5</f>
+        <v>11289637</v>
+      </c>
+      <c r="M98" s="37">
+        <v>86</v>
+      </c>
+      <c r="N98" s="37">
+        <f t="shared" ref="N98:N100" si="11">M98/L98</f>
+        <v>7.6176054199085411E-6</v>
+      </c>
+      <c r="O98" s="38">
+        <f t="shared" ref="O98:O101" si="12">N98*1000</f>
+        <v>7.6176054199085415E-3</v>
+      </c>
+      <c r="P98" s="5"/>
+      <c r="Q98" s="36">
+        <v>2560</v>
+      </c>
+      <c r="R98" s="37">
+        <f t="shared" ref="R98:R100" si="13">6*Q98*Q98+9*Q98+10+2*Q98*LOG(Q98,2)</f>
+        <v>39402618.271845825</v>
+      </c>
+      <c r="S98" s="37">
+        <v>120</v>
+      </c>
+      <c r="T98" s="37">
+        <f t="shared" ref="T98:T100" si="14">S98/R98</f>
+        <v>3.0454828958851971E-6</v>
+      </c>
+      <c r="U98" s="38">
+        <f t="shared" ref="U98:U101" si="15">T98*1000</f>
+        <v>3.0454828958851972E-3</v>
+      </c>
+      <c r="V98" s="5"/>
+      <c r="W98" s="36">
+        <v>1280</v>
+      </c>
+      <c r="X98" s="37">
+        <f t="shared" ref="X98:X100" si="16">17*W98*W98+2*W98*W98*LOG(W98,2)+2*W98*LOG(W98,2)+24*W98+26</f>
+        <v>61732864.117249817</v>
+      </c>
+      <c r="Y98" s="37">
+        <v>675</v>
+      </c>
+      <c r="Z98" s="37">
+        <f t="shared" ref="Z98:Z100" si="17">Y98/X98</f>
+        <v>1.0934208377533984E-5</v>
+      </c>
+      <c r="AA98" s="38">
+        <f t="shared" ref="AA98:AA101" si="18">Z98*1000</f>
+        <v>1.0934208377533984E-2</v>
+      </c>
+    </row>
+    <row r="99" spans="11:27" x14ac:dyDescent="0.25">
+      <c r="K99" s="36">
+        <v>10</v>
+      </c>
+      <c r="L99" s="37">
+        <f t="shared" si="10"/>
+        <v>1520467245</v>
+      </c>
+      <c r="M99" s="37">
+        <v>9527</v>
+      </c>
+      <c r="N99" s="37">
+        <f t="shared" si="11"/>
+        <v>6.2658370519517508E-6</v>
+      </c>
+      <c r="O99" s="38">
+        <f t="shared" si="12"/>
+        <v>6.2658370519517509E-3</v>
+      </c>
+      <c r="P99" s="5"/>
+      <c r="Q99" s="36">
+        <v>5120</v>
+      </c>
+      <c r="R99" s="37">
+        <f t="shared" si="13"/>
+        <v>157458666.54369164</v>
+      </c>
+      <c r="S99" s="37">
+        <v>475</v>
+      </c>
+      <c r="T99" s="37">
+        <f t="shared" si="14"/>
+        <v>3.0166646931955121E-6</v>
+      </c>
+      <c r="U99" s="38">
+        <f t="shared" si="15"/>
+        <v>3.0166646931955123E-3</v>
+      </c>
+      <c r="V99" s="5"/>
+      <c r="W99" s="36">
+        <v>2560</v>
+      </c>
+      <c r="X99" s="37">
+        <f t="shared" si="16"/>
+        <v>259929410.19715348</v>
+      </c>
+      <c r="Y99" s="37">
+        <v>2519</v>
+      </c>
+      <c r="Z99" s="37">
+        <f t="shared" si="17"/>
+        <v>9.6910926627708933E-6</v>
+      </c>
+      <c r="AA99" s="38">
+        <f t="shared" si="18"/>
+        <v>9.6910926627708938E-3</v>
+      </c>
+    </row>
+    <row r="100" spans="11:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K100" s="36">
+        <v>11</v>
+      </c>
+      <c r="L100" s="37">
+        <f t="shared" si="10"/>
+        <v>19918483249</v>
+      </c>
+      <c r="M100" s="37">
+        <v>117202</v>
+      </c>
+      <c r="N100" s="37">
+        <f t="shared" si="11"/>
+        <v>5.8840825646643593E-6</v>
+      </c>
+      <c r="O100" s="38">
+        <f t="shared" si="12"/>
+        <v>5.8840825646643592E-3</v>
+      </c>
+      <c r="P100" s="5"/>
+      <c r="Q100" s="36">
+        <v>10240</v>
+      </c>
+      <c r="R100" s="37">
+        <f t="shared" si="13"/>
+        <v>629510603.08738327</v>
+      </c>
+      <c r="S100" s="37">
+        <v>2100</v>
+      </c>
+      <c r="T100" s="37">
+        <f t="shared" si="14"/>
+        <v>3.3359247480514574E-6</v>
+      </c>
+      <c r="U100" s="38">
+        <f t="shared" si="15"/>
+        <v>3.3359247480514572E-3</v>
+      </c>
+      <c r="V100" s="5"/>
+      <c r="W100" s="36">
+        <v>5120</v>
+      </c>
+      <c r="X100" s="37">
+        <f t="shared" si="16"/>
+        <v>1091917786.2449222</v>
+      </c>
+      <c r="Y100" s="37">
+        <v>10412</v>
+      </c>
+      <c r="Z100" s="37">
+        <f t="shared" si="17"/>
+        <v>9.535516438290291E-6</v>
+      </c>
+      <c r="AA100" s="38">
+        <f t="shared" si="18"/>
+        <v>9.5355164382902903E-3</v>
+      </c>
+    </row>
+    <row r="101" spans="11:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K101" s="44" t="s">
+        <v>23</v>
+      </c>
+      <c r="L101" s="45"/>
+      <c r="M101" s="49"/>
+      <c r="N101" s="39">
+        <f>SUM(N97:N100)/4</f>
+        <v>6.9959610724563897E-6</v>
+      </c>
+      <c r="O101" s="40">
+        <f t="shared" si="12"/>
+        <v>6.99596107245639E-3</v>
+      </c>
+      <c r="P101" s="5"/>
+      <c r="Q101" s="44" t="s">
+        <v>23</v>
+      </c>
+      <c r="R101" s="45"/>
+      <c r="S101" s="49"/>
+      <c r="T101" s="39">
+        <f>SUM(T97:T100)/4</f>
+        <v>3.4388588043193961E-6</v>
+      </c>
+      <c r="U101" s="40">
+        <f t="shared" si="15"/>
+        <v>3.4388588043193962E-3</v>
+      </c>
+      <c r="V101" s="5"/>
+      <c r="W101" s="44" t="s">
+        <v>23</v>
+      </c>
+      <c r="X101" s="45"/>
+      <c r="Y101" s="49"/>
+      <c r="Z101" s="39">
+        <f>SUM(Z97:Z100)/4</f>
+        <v>1.0565423092691607E-5</v>
+      </c>
+      <c r="AA101" s="40">
+        <f t="shared" si="18"/>
+        <v>1.0565423092691607E-2</v>
+      </c>
+    </row>
+    <row r="102" spans="11:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K102" s="5"/>
+      <c r="L102" s="5"/>
+      <c r="M102" s="5"/>
+      <c r="N102" s="5"/>
+      <c r="O102" s="5"/>
+      <c r="P102" s="5"/>
+      <c r="Q102" s="5"/>
+      <c r="R102" s="5"/>
+      <c r="S102" s="5"/>
+      <c r="T102" s="5"/>
+      <c r="U102" s="5"/>
+      <c r="V102" s="5"/>
+      <c r="W102" s="5"/>
+      <c r="X102" s="5"/>
+      <c r="Y102" s="5"/>
+      <c r="Z102" s="5"/>
+      <c r="AA102" s="5"/>
+    </row>
+    <row r="103" spans="11:27" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="K103" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="L103" s="18"/>
+      <c r="M103" s="18"/>
+      <c r="N103" s="18"/>
+      <c r="O103" s="19"/>
+      <c r="P103" s="5"/>
+      <c r="Q103" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="R103" s="18"/>
+      <c r="S103" s="18"/>
+      <c r="T103" s="18"/>
+      <c r="U103" s="19"/>
+      <c r="V103" s="5"/>
+      <c r="W103" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="X103" s="18"/>
+      <c r="Y103" s="18"/>
+      <c r="Z103" s="18"/>
+      <c r="AA103" s="19"/>
+    </row>
+    <row r="104" spans="11:27" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K104" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="L104" s="29"/>
+      <c r="M104" s="29"/>
+      <c r="N104" s="29"/>
+      <c r="O104" s="30"/>
+      <c r="P104" s="5"/>
+      <c r="Q104" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="R104" s="29"/>
+      <c r="S104" s="29"/>
+      <c r="T104" s="29"/>
+      <c r="U104" s="30"/>
+      <c r="V104" s="5"/>
+      <c r="W104" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="X104" s="29"/>
+      <c r="Y104" s="29"/>
+      <c r="Z104" s="29"/>
+      <c r="AA104" s="30"/>
+    </row>
+    <row r="105" spans="11:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K105" s="41" t="s">
+        <v>15</v>
+      </c>
+      <c r="L105" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="M105" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="N105" s="42" t="s">
+        <v>27</v>
+      </c>
+      <c r="O105" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="P105" s="5"/>
+      <c r="Q105" s="41" t="s">
+        <v>15</v>
+      </c>
+      <c r="R105" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="S105" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="T105" s="42" t="s">
+        <v>27</v>
+      </c>
+      <c r="U105" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="V105" s="5"/>
+      <c r="W105" s="41" t="s">
+        <v>15</v>
+      </c>
+      <c r="X105" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y105" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z105" s="42" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA105" s="43" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="106" spans="11:27" x14ac:dyDescent="0.25">
+      <c r="K106" s="33">
+        <v>6</v>
+      </c>
+      <c r="L106" s="34">
+        <f>4*K106*K106+12*K106+11</f>
+        <v>227</v>
+      </c>
+      <c r="M106" s="51">
+        <v>1.0000000000000001E-30</v>
+      </c>
+      <c r="N106" s="34">
+        <f>M106/L106</f>
+        <v>4.4052863436123349E-33</v>
+      </c>
+      <c r="O106" s="35">
+        <f>N106*1000</f>
+        <v>4.4052863436123347E-30</v>
+      </c>
+      <c r="P106" s="5"/>
+      <c r="Q106" s="33">
+        <v>1280</v>
+      </c>
+      <c r="R106" s="34">
+        <f>6*Q106*Q106+8*Q106+10+2*Q106*LOG(Q106,2)</f>
+        <v>9867074.1359229125</v>
+      </c>
+      <c r="S106" s="34">
+        <v>43</v>
+      </c>
+      <c r="T106" s="34">
+        <f>S106/R106</f>
+        <v>4.3579281363104924E-6</v>
+      </c>
+      <c r="U106" s="35">
+        <f>T106*1000</f>
+        <v>4.357928136310492E-3</v>
+      </c>
+      <c r="V106" s="5"/>
+      <c r="W106" s="33">
+        <v>640</v>
+      </c>
+      <c r="X106" s="34">
+        <f>26*W106*W106+13*W106+2*W106*LOG(W106,2)+20</f>
+        <v>10669872.067961456</v>
+      </c>
+      <c r="Y106" s="34">
+        <v>30</v>
+      </c>
+      <c r="Z106" s="34">
+        <f>Y106/X106</f>
+        <v>2.8116550797343986E-6</v>
+      </c>
+      <c r="AA106" s="35">
+        <f>Z106*1000</f>
+        <v>2.8116550797343985E-3</v>
+      </c>
+    </row>
+    <row r="107" spans="11:27" x14ac:dyDescent="0.25">
+      <c r="K107" s="36">
+        <v>8</v>
+      </c>
+      <c r="L107" s="37">
+        <f t="shared" ref="L107:L109" si="19">4*K107*K107+12*K107+11</f>
+        <v>363</v>
+      </c>
+      <c r="M107" s="52">
+        <v>1.0000000000000001E-30</v>
+      </c>
+      <c r="N107" s="37">
+        <f t="shared" ref="N107:N109" si="20">M107/L107</f>
+        <v>2.7548209366391187E-33</v>
+      </c>
+      <c r="O107" s="38">
+        <f t="shared" ref="O107:O110" si="21">N107*1000</f>
+        <v>2.7548209366391187E-30</v>
+      </c>
+      <c r="P107" s="5"/>
+      <c r="Q107" s="36">
+        <v>2560</v>
+      </c>
+      <c r="R107" s="37">
+        <f t="shared" ref="R107:R109" si="22">6*Q107*Q107+8*Q107+10+2*Q107*LOG(Q107,2)</f>
+        <v>39400058.271845825</v>
+      </c>
+      <c r="S107" s="37">
+        <v>102</v>
+      </c>
+      <c r="T107" s="37">
+        <f t="shared" ref="T107:T109" si="23">S107/R107</f>
+        <v>2.5888286584816129E-6</v>
+      </c>
+      <c r="U107" s="38">
+        <f t="shared" ref="U107:U110" si="24">T107*1000</f>
+        <v>2.588828658481613E-3</v>
+      </c>
+      <c r="V107" s="5"/>
+      <c r="W107" s="36">
+        <v>1280</v>
+      </c>
+      <c r="X107" s="37">
+        <f t="shared" ref="X107:X109" si="25">26*W107*W107+13*W107+2*W107*LOG(W107,2)+20</f>
+        <v>42641484.135922909</v>
+      </c>
+      <c r="Y107" s="37">
+        <v>59</v>
+      </c>
+      <c r="Z107" s="37">
+        <f t="shared" ref="Z107:Z109" si="26">Y107/X107</f>
+        <v>1.3836291394533338E-6</v>
+      </c>
+      <c r="AA107" s="38">
+        <f t="shared" ref="AA107:AA110" si="27">Z107*1000</f>
+        <v>1.3836291394533338E-3</v>
+      </c>
+    </row>
+    <row r="108" spans="11:27" x14ac:dyDescent="0.25">
+      <c r="K108" s="36">
+        <v>10</v>
+      </c>
+      <c r="L108" s="37">
+        <f t="shared" si="19"/>
+        <v>531</v>
+      </c>
+      <c r="M108" s="52">
+        <v>1.0000000000000001E-30</v>
+      </c>
+      <c r="N108" s="37">
+        <f t="shared" si="20"/>
+        <v>1.8832391713747647E-33</v>
+      </c>
+      <c r="O108" s="38">
+        <f t="shared" si="21"/>
+        <v>1.8832391713747646E-30</v>
+      </c>
+      <c r="P108" s="5"/>
+      <c r="Q108" s="36">
+        <v>5120</v>
+      </c>
+      <c r="R108" s="37">
+        <f t="shared" si="22"/>
+        <v>157453546.54369164</v>
+      </c>
+      <c r="S108" s="37">
+        <v>587</v>
+      </c>
+      <c r="T108" s="37">
+        <f t="shared" si="23"/>
+        <v>3.7280836976073696E-6</v>
+      </c>
+      <c r="U108" s="38">
+        <f t="shared" si="24"/>
+        <v>3.7280836976073695E-3</v>
+      </c>
+      <c r="V108" s="5"/>
+      <c r="W108" s="36">
+        <v>2560</v>
+      </c>
+      <c r="X108" s="37">
+        <f t="shared" si="25"/>
+        <v>170484868.27184582</v>
+      </c>
+      <c r="Y108" s="37">
+        <v>207</v>
+      </c>
+      <c r="Z108" s="37">
+        <f t="shared" si="26"/>
+        <v>1.2141840041189412E-6</v>
+      </c>
+      <c r="AA108" s="38">
+        <f t="shared" si="27"/>
+        <v>1.2141840041189412E-3</v>
+      </c>
+    </row>
+    <row r="109" spans="11:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K109" s="36">
+        <v>11</v>
+      </c>
+      <c r="L109" s="37">
+        <f t="shared" si="19"/>
+        <v>627</v>
+      </c>
+      <c r="M109" s="52">
+        <v>1.0000000000000001E-30</v>
+      </c>
+      <c r="N109" s="37">
+        <f t="shared" si="20"/>
+        <v>1.5948963317384373E-33</v>
+      </c>
+      <c r="O109" s="38">
+        <f t="shared" si="21"/>
+        <v>1.5948963317384374E-30</v>
+      </c>
+      <c r="P109" s="5"/>
+      <c r="Q109" s="36">
+        <v>10240</v>
+      </c>
+      <c r="R109" s="37">
+        <f t="shared" si="22"/>
+        <v>629500363.08738327</v>
+      </c>
+      <c r="S109" s="37">
+        <v>2063</v>
+      </c>
+      <c r="T109" s="37">
+        <f t="shared" si="23"/>
+        <v>3.2772022400146374E-6</v>
+      </c>
+      <c r="U109" s="38">
+        <f t="shared" si="24"/>
+        <v>3.2772022400146374E-3</v>
+      </c>
+      <c r="V109" s="5"/>
+      <c r="W109" s="36">
+        <v>5120</v>
+      </c>
+      <c r="X109" s="37">
+        <f t="shared" si="25"/>
+        <v>681767156.54369164</v>
+      </c>
+      <c r="Y109" s="37">
+        <v>925</v>
+      </c>
+      <c r="Z109" s="37">
+        <f t="shared" si="26"/>
+        <v>1.3567682032226505E-6</v>
+      </c>
+      <c r="AA109" s="38">
+        <f t="shared" si="27"/>
+        <v>1.3567682032226505E-3</v>
+      </c>
+    </row>
+    <row r="110" spans="11:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K110" s="44" t="s">
+        <v>23</v>
+      </c>
+      <c r="L110" s="45"/>
+      <c r="M110" s="49"/>
+      <c r="N110" s="39">
+        <f>SUM(N106:N109)/4</f>
+        <v>2.6595606958411642E-33</v>
+      </c>
+      <c r="O110" s="40">
+        <f t="shared" si="21"/>
+        <v>2.6595606958411644E-30</v>
+      </c>
+      <c r="P110" s="5"/>
+      <c r="Q110" s="44" t="s">
+        <v>23</v>
+      </c>
+      <c r="R110" s="45"/>
+      <c r="S110" s="49"/>
+      <c r="T110" s="39">
+        <f>SUM(T106:T109)/4</f>
+        <v>3.488010683103528E-6</v>
+      </c>
+      <c r="U110" s="40">
+        <f t="shared" si="24"/>
+        <v>3.4880106831035279E-3</v>
+      </c>
+      <c r="V110" s="5"/>
+      <c r="W110" s="44" t="s">
+        <v>23</v>
+      </c>
+      <c r="X110" s="45"/>
+      <c r="Y110" s="49"/>
+      <c r="Z110" s="39">
+        <f>SUM(Z106:Z109)/4</f>
+        <v>1.691559106632331E-6</v>
+      </c>
+      <c r="AA110" s="40">
+        <f t="shared" si="27"/>
+        <v>1.691559106632331E-3</v>
+      </c>
+    </row>
+    <row r="111" spans="11:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K111" s="5"/>
+      <c r="L111" s="5"/>
+      <c r="M111" s="5"/>
+      <c r="N111" s="5"/>
+      <c r="O111" s="5"/>
+      <c r="P111" s="5"/>
+      <c r="Q111" s="5"/>
+      <c r="R111" s="5"/>
+      <c r="S111" s="5"/>
+      <c r="T111" s="5"/>
+      <c r="U111" s="5"/>
+      <c r="V111" s="5"/>
+      <c r="W111" s="5"/>
+      <c r="X111" s="5"/>
+      <c r="Y111" s="5"/>
+      <c r="Z111" s="5"/>
+      <c r="AA111" s="5"/>
+    </row>
+    <row r="112" spans="11:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K112" s="44" t="s">
+        <v>29</v>
+      </c>
+      <c r="L112" s="45"/>
+      <c r="M112" s="45"/>
+      <c r="N112" s="45"/>
+      <c r="O112" s="50">
+        <f>SUM(O106:O110,O97:O101)/8</f>
+        <v>4.3724756702852429E-3</v>
+      </c>
+      <c r="P112" s="5"/>
+      <c r="Q112" s="44" t="s">
+        <v>29</v>
+      </c>
+      <c r="R112" s="45"/>
+      <c r="S112" s="45"/>
+      <c r="T112" s="45"/>
+      <c r="U112" s="50">
+        <f>SUM(U106:U110,U97:U101)/8</f>
+        <v>4.3292934296393281E-3</v>
+      </c>
+      <c r="V112" s="5"/>
+      <c r="W112" s="44" t="s">
+        <v>29</v>
+      </c>
+      <c r="X112" s="45"/>
+      <c r="Y112" s="45"/>
+      <c r="Z112" s="45"/>
+      <c r="AA112" s="50">
+        <f>SUM(AA106:AA110,AA97:AA101)/8</f>
+        <v>7.6606138745774609E-3</v>
+      </c>
+    </row>
+    <row r="114" spans="15:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="115" spans="15:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O115" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="P115" s="32"/>
+      <c r="Q115" s="32"/>
+      <c r="R115" s="50">
+        <f>SUM(O112,U112,AA112)/3</f>
+        <v>5.4541276581673431E-3</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="29">
+    <mergeCell ref="O115:Q115"/>
+    <mergeCell ref="K112:N112"/>
+    <mergeCell ref="Q112:T112"/>
+    <mergeCell ref="W112:Z112"/>
+    <mergeCell ref="K92:AA92"/>
+    <mergeCell ref="K103:O103"/>
+    <mergeCell ref="K104:O104"/>
+    <mergeCell ref="Q94:U94"/>
+    <mergeCell ref="Q95:U95"/>
+    <mergeCell ref="Q103:U103"/>
+    <mergeCell ref="Q104:U104"/>
+    <mergeCell ref="W94:AA94"/>
+    <mergeCell ref="W95:AA95"/>
+    <mergeCell ref="W103:AA103"/>
+    <mergeCell ref="W104:AA104"/>
+    <mergeCell ref="Q110:S110"/>
+    <mergeCell ref="W101:Y101"/>
+    <mergeCell ref="W110:Y110"/>
+    <mergeCell ref="Q101:S101"/>
+    <mergeCell ref="K101:M101"/>
+    <mergeCell ref="K110:M110"/>
+    <mergeCell ref="K94:O94"/>
+    <mergeCell ref="K95:O95"/>
     <mergeCell ref="D5:J5"/>
     <mergeCell ref="D23:J23"/>
     <mergeCell ref="D51:J51"/>
